--- a/SongData/AddressCalcs.xlsx
+++ b/SongData/AddressCalcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>303.h</t>
   </si>
@@ -96,9 +96,6 @@
     <t>SongIX</t>
   </si>
   <si>
-    <t>HIMEM</t>
-  </si>
-  <si>
     <t>maxtrack</t>
   </si>
   <si>
@@ -142,6 +139,18 @@
   </si>
   <si>
     <t>0x05</t>
+  </si>
+  <si>
+    <t>SongHigh</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>1ff00</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -526,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>102</v>
@@ -540,11 +549,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" si="1">G4-F3</f>
-        <v>113760</v>
+        <v>113504</v>
       </c>
       <c r="H3" t="str">
         <f>DEC2HEX(G3)</f>
-        <v>1BC60</v>
+        <v>1BB60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -556,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>106</v>
@@ -570,11 +579,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>113888</v>
+        <v>113632</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H23" si="3">DEC2HEX(G4)</f>
-        <v>1BCE0</v>
+        <f t="shared" ref="H4:H25" si="3">DEC2HEX(G4)</f>
+        <v>1BBE0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>238</v>
@@ -600,11 +609,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>114016</v>
+        <v>113760</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
-        <v>1BD60</v>
+        <v>1BC60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>664</v>
@@ -630,11 +639,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>114272</v>
+        <v>114016</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
-        <v>1BE60</v>
+        <v>1BD60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -646,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -660,11 +669,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>114976</v>
+        <v>114720</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
-        <v>1C120</v>
+        <v>1C020</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,10 +685,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -690,11 +699,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>115104</v>
+        <v>114848</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
-        <v>1C1A0</v>
+        <v>1C0A0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>168</v>
@@ -720,11 +729,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>115232</v>
+        <v>114976</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
-        <v>1C220</v>
+        <v>1C120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>712</v>
@@ -750,11 +759,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>115424</v>
+        <v>115168</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
-        <v>1C2E0</v>
+        <v>1C1E0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,10 +775,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>472</v>
@@ -780,11 +789,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>116192</v>
+        <v>115936</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
-        <v>1C5E0</v>
+        <v>1C4E0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,10 +805,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
       <c r="E12">
         <v>390</v>
@@ -810,11 +819,11 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>116704</v>
+        <v>116448</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
-        <v>1C7E0</v>
+        <v>1C6E0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,10 +835,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>101</v>
@@ -840,11 +849,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>117152</v>
+        <v>116896</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
-        <v>1C9A0</v>
+        <v>1C8A0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,10 +865,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
       </c>
       <c r="E14">
         <v>2105</v>
@@ -870,11 +879,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>117280</v>
+        <v>117024</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
-        <v>1CA20</v>
+        <v>1C920</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,10 +895,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>867</v>
@@ -900,11 +909,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>119392</v>
+        <v>119136</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
-        <v>1D260</v>
+        <v>1D160</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,10 +925,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>546</v>
@@ -930,11 +939,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>120288</v>
+        <v>120032</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
-        <v>1D5E0</v>
+        <v>1D4E0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,10 +955,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>99</v>
@@ -960,11 +969,11 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>120864</v>
+        <v>120608</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
-        <v>1D820</v>
+        <v>1D720</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,10 +985,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>83</v>
@@ -990,11 +999,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>120992</v>
+        <v>120736</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
-        <v>1D8A0</v>
+        <v>1D7A0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,10 +1015,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>572</v>
@@ -1020,11 +1029,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>121120</v>
+        <v>120864</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
-        <v>1D920</v>
+        <v>1D820</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,10 +1045,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>711</v>
@@ -1050,11 +1059,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>121696</v>
+        <v>121440</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>1DB60</v>
+        <v>1DA60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,10 +1075,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>78</v>
@@ -1080,11 +1089,11 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>122464</v>
+        <v>122208</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>1DE60</v>
+        <v>1DD60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1095,10 +1104,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>110</v>
@@ -1109,23 +1118,53 @@
       </c>
       <c r="G22">
         <f>G23-F22</f>
-        <v>122592</v>
+        <v>122336</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>1DEE0</v>
+        <v>1DDE0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>122720</v>
+        <v>122464</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
-        <v>1DF60</v>
+        <v>1DE60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <f>8344</f>
+        <v>8344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f>G23+G24</f>
+        <v>130808</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>1FEF8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
